--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.9232128393843</v>
+        <v>141.3574043333333</v>
       </c>
       <c r="H2">
-        <v>26.9232128393843</v>
+        <v>424.072213</v>
       </c>
       <c r="I2">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="J2">
-        <v>0.1594781910224597</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.46872113201998</v>
+        <v>74.89537566666667</v>
       </c>
       <c r="N2">
-        <v>7.46872113201998</v>
+        <v>224.686127</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6660623326691122</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6660623326691123</v>
       </c>
       <c r="Q2">
-        <v>201.0819686753812</v>
+        <v>10587.01590080989</v>
       </c>
       <c r="R2">
-        <v>201.0819686753812</v>
+        <v>95283.14310728904</v>
       </c>
       <c r="S2">
-        <v>0.1594781910224597</v>
+        <v>0.3300172495502967</v>
       </c>
       <c r="T2">
-        <v>0.1594781910224597</v>
+        <v>0.3300172495502967</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>139.534203510238</v>
+        <v>141.3574043333333</v>
       </c>
       <c r="H3">
-        <v>139.534203510238</v>
+        <v>424.072213</v>
       </c>
       <c r="I3">
-        <v>0.8265232865900931</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="J3">
-        <v>0.8265232865900931</v>
+        <v>0.4954750229273862</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.46872113201998</v>
+        <v>37.54961933333333</v>
       </c>
       <c r="N3">
-        <v>7.46872113201998</v>
+        <v>112.648858</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3339376673308877</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3339376673308878</v>
       </c>
       <c r="Q3">
-        <v>1042.142054396491</v>
+        <v>5307.916722664751</v>
       </c>
       <c r="R3">
-        <v>1042.142054396491</v>
+        <v>47771.25050398274</v>
       </c>
       <c r="S3">
-        <v>0.8265232865900931</v>
+        <v>0.1654577733770894</v>
       </c>
       <c r="T3">
-        <v>0.8265232865900931</v>
+        <v>0.1654577733770895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.224758638103779</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H4">
-        <v>0.224758638103779</v>
+        <v>421.303475</v>
       </c>
       <c r="I4">
-        <v>0.001331345602595699</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="J4">
-        <v>0.001331345602595699</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.46872113201998</v>
+        <v>74.89537566666667</v>
       </c>
       <c r="N4">
-        <v>7.46872113201998</v>
+        <v>224.686127</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6660623326691122</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6660623326691123</v>
       </c>
       <c r="Q4">
-        <v>1.678659590009725</v>
+        <v>10517.89400993237</v>
       </c>
       <c r="R4">
-        <v>1.678659590009725</v>
+        <v>94661.04608939133</v>
       </c>
       <c r="S4">
-        <v>0.001331345602595699</v>
+        <v>0.3278625898685849</v>
       </c>
       <c r="T4">
-        <v>0.001331345602595699</v>
+        <v>0.327862589868585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.13848109554137</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H5">
-        <v>2.13848109554137</v>
+        <v>421.303475</v>
       </c>
       <c r="I5">
-        <v>0.01266717678485153</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="J5">
-        <v>0.01266717678485153</v>
+        <v>0.4922401009448182</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.46872113201998</v>
+        <v>37.54961933333333</v>
       </c>
       <c r="N5">
-        <v>7.46872113201998</v>
+        <v>112.648858</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3339376673308877</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3339376673308878</v>
       </c>
       <c r="Q5">
-        <v>15.97171894869507</v>
+        <v>5273.261703353505</v>
       </c>
       <c r="R5">
-        <v>15.97171894869507</v>
+        <v>47459.35533018155</v>
       </c>
       <c r="S5">
-        <v>0.01266717678485153</v>
+        <v>0.1643775110762333</v>
       </c>
       <c r="T5">
-        <v>0.01266717678485153</v>
+        <v>0.1643775110762333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.248853</v>
+      </c>
+      <c r="H6">
+        <v>0.7465590000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.0008722602573388757</v>
+      </c>
+      <c r="J6">
+        <v>0.0008722602573388757</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N6">
+        <v>224.686127</v>
+      </c>
+      <c r="O6">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P6">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q6">
+        <v>18.637938920777</v>
+      </c>
+      <c r="R6">
+        <v>167.741450286993</v>
+      </c>
+      <c r="S6">
+        <v>0.0005809797016976916</v>
+      </c>
+      <c r="T6">
+        <v>0.0005809797016976917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.248853</v>
+      </c>
+      <c r="H7">
+        <v>0.7465590000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0008722602573388757</v>
+      </c>
+      <c r="J7">
+        <v>0.0008722602573388757</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N7">
+        <v>112.648858</v>
+      </c>
+      <c r="O7">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P7">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q7">
+        <v>9.344335419958</v>
+      </c>
+      <c r="R7">
+        <v>84.099018779622</v>
+      </c>
+      <c r="S7">
+        <v>0.000291280555641184</v>
+      </c>
+      <c r="T7">
+        <v>0.000291280555641184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.255981999999999</v>
+      </c>
+      <c r="H8">
+        <v>9.767945999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.01141261587045664</v>
+      </c>
+      <c r="J8">
+        <v>0.01141261587045664</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N8">
+        <v>224.686127</v>
+      </c>
+      <c r="O8">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P8">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q8">
+        <v>243.8579950539046</v>
+      </c>
+      <c r="R8">
+        <v>2194.721955485142</v>
+      </c>
+      <c r="S8">
+        <v>0.007601513548532881</v>
+      </c>
+      <c r="T8">
+        <v>0.007601513548532882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.255981999999999</v>
+      </c>
+      <c r="H9">
+        <v>9.767945999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.01141261587045664</v>
+      </c>
+      <c r="J9">
+        <v>0.01141261587045664</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N9">
+        <v>112.648858</v>
+      </c>
+      <c r="O9">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P9">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q9">
+        <v>122.2608846561853</v>
+      </c>
+      <c r="R9">
+        <v>1100.347961905668</v>
+      </c>
+      <c r="S9">
+        <v>0.00381110232192376</v>
+      </c>
+      <c r="T9">
+        <v>0.00381110232192376</v>
       </c>
     </row>
   </sheetData>
